--- a/blb_content/Design/BLB Budget _ Single Income Example.xlsx
+++ b/blb_content/Design/BLB Budget _ Single Income Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolin\Documents\GitHub\budget-app\blb_content\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3F9791-AA85-41FA-B813-136978E787C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028FA54-8654-4083-837A-A69A16C0D882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="904" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,7 +1313,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1770,28 +1770,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1847,6 +1825,29 @@
     <xf numFmtId="10" fontId="60" fillId="0" borderId="16" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="60" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="20% - Accent1" xfId="9" builtinId="30"/>
@@ -5290,426 +5291,6 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:spPr>
-                <a:pattFill prst="pct75">
-                  <a:fgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:fgClr>
-                  <a:bgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:bgClr>
-                </a:pattFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-F57B-4A5E-B369-309426C01AC9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:spPr>
-                <a:pattFill prst="pct75">
-                  <a:fgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:fgClr>
-                  <a:bgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:bgClr>
-                </a:pattFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F57B-4A5E-B369-309426C01AC9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:spPr>
-                <a:pattFill prst="pct75">
-                  <a:fgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:fgClr>
-                  <a:bgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:bgClr>
-                </a:pattFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-F57B-4A5E-B369-309426C01AC9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:spPr>
-                <a:pattFill prst="pct75">
-                  <a:fgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:fgClr>
-                  <a:bgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:bgClr>
-                </a:pattFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-F57B-4A5E-B369-309426C01AC9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:spPr>
-                <a:pattFill prst="pct75">
-                  <a:fgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:fgClr>
-                  <a:bgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:bgClr>
-                </a:pattFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-F57B-4A5E-B369-309426C01AC9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:spPr>
-                <a:pattFill prst="pct75">
-                  <a:fgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:fgClr>
-                  <a:bgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:bgClr>
-                </a:pattFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-F57B-4A5E-B369-309426C01AC9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:spPr>
-                <a:pattFill prst="pct75">
-                  <a:fgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:fgClr>
-                  <a:bgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:bgClr>
-                </a:pattFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-F57B-4A5E-B369-309426C01AC9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:pattFill prst="pct75">
                 <a:fgClr>
@@ -10406,12 +9987,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="201" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="202" t="s">
         <v>108</v>
       </c>
       <c r="B2" t="s">
@@ -10459,7 +10040,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="211" t="s">
+      <c r="A11" s="203" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10491,14 +10072,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -11914,14 +11495,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="244" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="36"/>
@@ -12502,14 +12083,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="244" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
     </row>
     <row r="2" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="37"/>
@@ -13477,14 +13058,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
     </row>
     <row r="2" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="75"/>
@@ -14207,14 +13788,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
     </row>
     <row r="2" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="83"/>
@@ -15156,14 +14737,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
     </row>
     <row r="2" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="89"/>
@@ -15996,14 +15577,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="244" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
     </row>
     <row r="2" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="97"/>
@@ -16677,14 +16258,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="244" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
     </row>
     <row r="2" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="98"/>
@@ -17529,14 +17110,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
     </row>
     <row r="2" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="99"/>
@@ -18253,14 +17834,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
     </row>
     <row r="2" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="100"/>
@@ -18926,21 +18507,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="238" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
       <c r="N1" s="195"/>
       <c r="O1" s="195"/>
       <c r="P1" s="195"/>
@@ -18949,19 +18530,19 @@
       <c r="S1" s="55"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="199"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
+      <c r="A2" s="238"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
       <c r="N2" s="195"/>
       <c r="O2" s="195"/>
       <c r="P2" s="195"/>
@@ -18973,19 +18554,19 @@
       <c r="V2" s="142"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
+      <c r="A3" s="239"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
       <c r="N3" s="195"/>
       <c r="O3" s="195"/>
       <c r="P3" s="195"/>
@@ -18997,8 +18578,8 @@
       <c r="V3" s="142"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="198"/>
-      <c r="B4" s="198"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="237"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
@@ -19120,9 +18701,9 @@
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
       <c r="G8" s="55"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="237"/>
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
       <c r="M8" s="55"/>
@@ -19481,8 +19062,8 @@
       <c r="V21" s="142"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="206"/>
-      <c r="B22" s="207"/>
+      <c r="A22" s="198"/>
+      <c r="B22" s="199"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -19505,8 +19086,8 @@
       <c r="V22" s="142"/>
     </row>
     <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="206"/>
-      <c r="B23" s="207"/>
+      <c r="A23" s="198"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -19529,8 +19110,8 @@
       <c r="V23" s="142"/>
     </row>
     <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="208"/>
-      <c r="B24" s="207"/>
+      <c r="A24" s="200"/>
+      <c r="B24" s="199"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -19553,8 +19134,8 @@
       <c r="V24" s="142"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="208"/>
-      <c r="B25" s="208"/>
+      <c r="A25" s="200"/>
+      <c r="B25" s="200"/>
       <c r="C25" s="55"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -19577,8 +19158,8 @@
       <c r="V25" s="142"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="208"/>
-      <c r="B26" s="208"/>
+      <c r="A26" s="200"/>
+      <c r="B26" s="200"/>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
@@ -19972,14 +19553,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="244" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
     </row>
     <row r="2" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="111"/>
@@ -20723,14 +20304,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
     </row>
     <row r="2" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="111"/>
@@ -21346,7 +20927,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22261,7 +21842,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22805,2584 +22386,2556 @@
   <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="212" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="10" style="212" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.7109375" style="212" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10" style="212" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.28515625" style="212" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="11" style="212" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="212"/>
-    <col min="28" max="28" width="11" style="212" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="212"/>
-    <col min="30" max="30" width="13.42578125" style="212" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="12" style="212" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="212"/>
+    <col min="1" max="1" width="13.42578125" style="204" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="10" style="204" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.7109375" style="204" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10" style="204" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.28515625" style="204" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="11" style="204" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="204"/>
+    <col min="28" max="28" width="11" style="204" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="204"/>
+    <col min="30" max="30" width="13.42578125" style="204" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="12" style="204" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="204"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="213" t="s">
+      <c r="C1" s="205" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="214" t="s">
+      <c r="D1" s="206" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="214" t="s">
+      <c r="E1" s="206" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="215" t="s">
+      <c r="F1" s="207" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="215" t="s">
+      <c r="G1" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="215" t="s">
+      <c r="H1" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="215" t="s">
+      <c r="I1" s="207" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="215" t="s">
+      <c r="J1" s="207" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="215" t="s">
+      <c r="K1" s="207" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="215" t="s">
+      <c r="L1" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="215" t="s">
+      <c r="M1" s="207" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="215" t="s">
+      <c r="N1" s="207" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="215" t="s">
+      <c r="O1" s="207" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="215" t="s">
+      <c r="P1" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="215" t="s">
+      <c r="Q1" s="207" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="215" t="s">
+      <c r="R1" s="207" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="215" t="s">
+      <c r="S1" s="207" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="215" t="s">
+      <c r="T1" s="207" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="215" t="s">
+      <c r="U1" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="V1" s="215" t="s">
+      <c r="V1" s="207" t="s">
         <v>130</v>
       </c>
-      <c r="W1" s="215" t="s">
+      <c r="W1" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="215" t="s">
+      <c r="X1" s="207" t="s">
         <v>132</v>
       </c>
-      <c r="Y1" s="215" t="s">
+      <c r="Y1" s="207" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" s="216" t="s">
+      <c r="Z1" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="212">
+      <c r="AE1" s="204">
         <v>72000</v>
       </c>
-      <c r="AF1" s="217"/>
+      <c r="AF1" s="209"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="210" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="219">
-        <v>3000</v>
-      </c>
-      <c r="C2" s="219">
-        <v>3000</v>
-      </c>
-      <c r="D2" s="219">
-        <v>3000</v>
-      </c>
-      <c r="E2" s="219">
-        <v>3000</v>
-      </c>
-      <c r="F2" s="219">
-        <v>3000</v>
-      </c>
-      <c r="G2" s="219">
-        <v>3000</v>
-      </c>
-      <c r="H2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="I2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="J2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="K2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="L2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="M2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="N2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="O2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="P2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="Q2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="R2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="S2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="T2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="U2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="V2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="W2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="X2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="Y2" s="219">
-        <v>3140.1</v>
-      </c>
-      <c r="Z2" s="220">
+      <c r="B2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="C2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="D2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="F2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="G2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="H2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="I2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="J2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="K2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="L2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="M2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="N2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="O2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="P2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="Q2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="R2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="S2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="T2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="U2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="V2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="W2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="X2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="Y2" s="211">
+        <v>2500</v>
+      </c>
+      <c r="Z2" s="212">
         <f>SUM(B2:Y2)</f>
-        <v>74521.799999999988</v>
-      </c>
-      <c r="AB2" s="221">
-        <v>12550</v>
-      </c>
-      <c r="AF2" s="217"/>
+        <v>60000</v>
+      </c>
+      <c r="AB2" s="213">
+        <v>12400</v>
+      </c>
+      <c r="AF2" s="209"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="222"/>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="223"/>
-      <c r="AB3" s="217">
-        <f>Z16</f>
-        <v>3726.1800000000021</v>
-      </c>
-      <c r="AD3" s="224">
+      <c r="A3" s="214"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="213"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="215"/>
+      <c r="AB3" s="209"/>
+      <c r="AD3" s="216">
         <v>0.1</v>
       </c>
-      <c r="AE3" s="225">
-        <v>9875</v>
-      </c>
-      <c r="AF3" s="217">
-        <v>9875</v>
-      </c>
-      <c r="AG3" s="221">
+      <c r="AE3" s="217">
+        <v>9950</v>
+      </c>
+      <c r="AF3" s="209">
+        <v>9950</v>
+      </c>
+      <c r="AG3" s="213">
         <f>AD3*AF3</f>
-        <v>987.5</v>
+        <v>995</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="222" t="s">
+      <c r="A4" s="214" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="221"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="221"/>
-      <c r="Q4" s="221"/>
-      <c r="R4" s="221"/>
-      <c r="S4" s="221"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
-      <c r="V4" s="221"/>
-      <c r="W4" s="221"/>
-      <c r="X4" s="221"/>
-      <c r="Y4" s="221"/>
-      <c r="Z4" s="223"/>
-      <c r="AB4" s="217">
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="213"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="213"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="213"/>
+      <c r="N4" s="213"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="213"/>
+      <c r="R4" s="213"/>
+      <c r="S4" s="213"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
+      <c r="V4" s="213"/>
+      <c r="W4" s="213"/>
+      <c r="X4" s="213"/>
+      <c r="Y4" s="213"/>
+      <c r="Z4" s="215"/>
+      <c r="AD4" s="216">
+        <v>0.12</v>
+      </c>
+      <c r="AE4" s="217">
+        <v>9951</v>
+      </c>
+      <c r="AF4" s="209">
+        <f>AE5-AE4</f>
+        <v>30575</v>
+      </c>
+      <c r="AG4" s="213">
+        <f>AD4*AF4</f>
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" s="218" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="213">
+        <v>260</v>
+      </c>
+      <c r="C5" s="213">
+        <v>260</v>
+      </c>
+      <c r="D5" s="213">
+        <v>260</v>
+      </c>
+      <c r="E5" s="213">
+        <v>260</v>
+      </c>
+      <c r="F5" s="213">
+        <v>260</v>
+      </c>
+      <c r="G5" s="213">
+        <v>260</v>
+      </c>
+      <c r="H5" s="213">
+        <v>260</v>
+      </c>
+      <c r="I5" s="213">
+        <v>260</v>
+      </c>
+      <c r="J5" s="213">
+        <v>260</v>
+      </c>
+      <c r="K5" s="213">
+        <v>260</v>
+      </c>
+      <c r="L5" s="213">
+        <v>260</v>
+      </c>
+      <c r="M5" s="213">
+        <v>260</v>
+      </c>
+      <c r="N5" s="213">
+        <v>260</v>
+      </c>
+      <c r="O5" s="213">
+        <v>260</v>
+      </c>
+      <c r="P5" s="213">
+        <v>260</v>
+      </c>
+      <c r="Q5" s="213">
+        <v>260</v>
+      </c>
+      <c r="R5" s="213">
+        <v>260</v>
+      </c>
+      <c r="S5" s="213">
+        <v>260</v>
+      </c>
+      <c r="T5" s="213">
+        <v>260</v>
+      </c>
+      <c r="U5" s="213">
+        <v>260</v>
+      </c>
+      <c r="V5" s="213">
+        <v>260</v>
+      </c>
+      <c r="W5" s="213">
+        <v>260</v>
+      </c>
+      <c r="X5" s="213">
+        <v>260</v>
+      </c>
+      <c r="Y5" s="213">
+        <v>260</v>
+      </c>
+      <c r="Z5" s="215">
+        <f>SUM(B5:Y5)</f>
+        <v>6240</v>
+      </c>
+      <c r="AB5" s="209">
         <f>Z2-AB2-AB3</f>
-        <v>58245.619999999988</v>
-      </c>
-      <c r="AD4" s="224">
-        <v>0.12</v>
-      </c>
-      <c r="AE4" s="225">
-        <v>9875</v>
-      </c>
-      <c r="AF4" s="217">
-        <f>AE5-AE4</f>
-        <v>30250</v>
-      </c>
-      <c r="AG4" s="221">
-        <f>AD4*AF4</f>
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="226" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="221">
-        <v>327.23</v>
-      </c>
-      <c r="C5" s="221">
-        <v>327.23</v>
-      </c>
-      <c r="D5" s="221">
-        <v>327.23</v>
-      </c>
-      <c r="E5" s="221">
-        <v>327.23</v>
-      </c>
-      <c r="F5" s="221">
-        <v>327.23</v>
-      </c>
-      <c r="G5" s="221">
-        <v>327.23</v>
-      </c>
-      <c r="H5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="I5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="J5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="K5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="L5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="M5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="N5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="O5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="P5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="Q5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="R5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="S5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="T5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="U5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="V5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="W5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="X5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="Y5" s="221">
-        <v>356.51</v>
-      </c>
-      <c r="Z5" s="223">
-        <f>SUM(B5:Y5)</f>
-        <v>8380.5600000000031</v>
-      </c>
-      <c r="AB5" s="224"/>
-      <c r="AD5" s="224">
+        <v>47600</v>
+      </c>
+      <c r="AD5" s="216">
         <v>0.22</v>
       </c>
-      <c r="AE5" s="225">
-        <v>40125</v>
-      </c>
-      <c r="AF5" s="217">
-        <f>AB4-AE5</f>
-        <v>18120.619999999988</v>
-      </c>
-      <c r="AG5" s="221">
+      <c r="AE5" s="217">
+        <v>40526</v>
+      </c>
+      <c r="AF5" s="209">
+        <f>AB5-AE5</f>
+        <v>7074</v>
+      </c>
+      <c r="AG5" s="213">
         <f>AD5*AF5</f>
-        <v>3986.5363999999972</v>
+        <v>1556.28</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="218" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="221">
-        <v>184.09</v>
-      </c>
-      <c r="C6" s="221">
-        <v>184.1</v>
-      </c>
-      <c r="D6" s="221">
-        <v>184.09</v>
-      </c>
-      <c r="E6" s="221">
-        <v>184.09</v>
-      </c>
-      <c r="F6" s="221">
-        <v>184.1</v>
-      </c>
-      <c r="G6" s="221">
-        <v>184.09</v>
-      </c>
-      <c r="H6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="I6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="J6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="K6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="L6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="M6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="N6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="O6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="P6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="Q6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="R6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="S6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="T6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="U6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="V6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="W6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="X6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="Y6" s="221">
-        <v>192.8</v>
-      </c>
-      <c r="Z6" s="223">
+      <c r="B6" s="213">
+        <v>155</v>
+      </c>
+      <c r="C6" s="213">
+        <v>155</v>
+      </c>
+      <c r="D6" s="213">
+        <v>155</v>
+      </c>
+      <c r="E6" s="213">
+        <v>155</v>
+      </c>
+      <c r="F6" s="213">
+        <v>155</v>
+      </c>
+      <c r="G6" s="213">
+        <v>155</v>
+      </c>
+      <c r="H6" s="213">
+        <v>155</v>
+      </c>
+      <c r="I6" s="213">
+        <v>155</v>
+      </c>
+      <c r="J6" s="213">
+        <v>155</v>
+      </c>
+      <c r="K6" s="213">
+        <v>155</v>
+      </c>
+      <c r="L6" s="213">
+        <v>155</v>
+      </c>
+      <c r="M6" s="213">
+        <v>155</v>
+      </c>
+      <c r="N6" s="213">
+        <v>155</v>
+      </c>
+      <c r="O6" s="213">
+        <v>155</v>
+      </c>
+      <c r="P6" s="213">
+        <v>155</v>
+      </c>
+      <c r="Q6" s="213">
+        <v>155</v>
+      </c>
+      <c r="R6" s="213">
+        <v>155</v>
+      </c>
+      <c r="S6" s="213">
+        <v>155</v>
+      </c>
+      <c r="T6" s="213">
+        <v>155</v>
+      </c>
+      <c r="U6" s="213">
+        <v>155</v>
+      </c>
+      <c r="V6" s="213">
+        <v>155</v>
+      </c>
+      <c r="W6" s="213">
+        <v>155</v>
+      </c>
+      <c r="X6" s="213">
+        <v>155</v>
+      </c>
+      <c r="Y6" s="213">
+        <v>155</v>
+      </c>
+      <c r="Z6" s="215">
         <f>SUM(B6:Y6)</f>
-        <v>4574.9600000000019</v>
-      </c>
-      <c r="AB6" s="225"/>
-      <c r="AD6" s="224"/>
-      <c r="AE6" s="225"/>
-      <c r="AF6" s="217"/>
-      <c r="AG6" s="221">
+        <v>3720</v>
+      </c>
+      <c r="AB6" s="217"/>
+      <c r="AD6" s="216"/>
+      <c r="AE6" s="217"/>
+      <c r="AF6" s="209"/>
+      <c r="AG6" s="213">
         <f>SUM(AG3:AG5)</f>
-        <v>8604.0363999999972</v>
+        <v>6220.28</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="226" t="s">
+      <c r="A7" s="218" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="221">
-        <v>43.05</v>
-      </c>
-      <c r="C7" s="221">
-        <v>43.06</v>
-      </c>
-      <c r="D7" s="221">
-        <v>43.06</v>
-      </c>
-      <c r="E7" s="221">
-        <v>43.05</v>
-      </c>
-      <c r="F7" s="221">
-        <v>43.05</v>
-      </c>
-      <c r="G7" s="221">
-        <v>43.05</v>
-      </c>
-      <c r="H7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="I7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="J7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="K7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="L7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="M7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="N7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="O7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="P7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="Q7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="R7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="S7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="T7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="U7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="V7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="W7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="X7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="Y7" s="221">
-        <v>45.09</v>
-      </c>
-      <c r="Z7" s="223">
+      <c r="B7" s="213">
+        <v>36</v>
+      </c>
+      <c r="C7" s="213">
+        <v>36</v>
+      </c>
+      <c r="D7" s="213">
+        <v>36</v>
+      </c>
+      <c r="E7" s="213">
+        <v>36</v>
+      </c>
+      <c r="F7" s="213">
+        <v>36</v>
+      </c>
+      <c r="G7" s="213">
+        <v>36</v>
+      </c>
+      <c r="H7" s="213">
+        <v>36</v>
+      </c>
+      <c r="I7" s="213">
+        <v>36</v>
+      </c>
+      <c r="J7" s="213">
+        <v>36</v>
+      </c>
+      <c r="K7" s="213">
+        <v>36</v>
+      </c>
+      <c r="L7" s="213">
+        <v>36</v>
+      </c>
+      <c r="M7" s="213">
+        <v>36</v>
+      </c>
+      <c r="N7" s="213">
+        <v>36</v>
+      </c>
+      <c r="O7" s="213">
+        <v>36</v>
+      </c>
+      <c r="P7" s="213">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="213">
+        <v>36</v>
+      </c>
+      <c r="R7" s="213">
+        <v>36</v>
+      </c>
+      <c r="S7" s="213">
+        <v>36</v>
+      </c>
+      <c r="T7" s="213">
+        <v>36</v>
+      </c>
+      <c r="U7" s="213">
+        <v>36</v>
+      </c>
+      <c r="V7" s="213">
+        <v>36</v>
+      </c>
+      <c r="W7" s="213">
+        <v>36</v>
+      </c>
+      <c r="X7" s="213">
+        <v>36</v>
+      </c>
+      <c r="Y7" s="213">
+        <v>36</v>
+      </c>
+      <c r="Z7" s="215">
         <f>SUM(B7:Y7)</f>
-        <v>1069.9400000000005</v>
-      </c>
-      <c r="AD7" s="224"/>
-      <c r="AE7" s="225"/>
-      <c r="AF7" s="217"/>
-      <c r="AG7" s="224"/>
+        <v>864</v>
+      </c>
+      <c r="AD7" s="216"/>
+      <c r="AE7" s="217"/>
+      <c r="AF7" s="209"/>
+      <c r="AG7" s="216"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="218" t="s">
+      <c r="A8" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="219">
+      <c r="B8" s="211">
         <f>SUM(B5:B7)</f>
-        <v>554.37</v>
-      </c>
-      <c r="C8" s="219">
+        <v>451</v>
+      </c>
+      <c r="C8" s="211">
         <f t="shared" ref="C8:Y8" si="0">SUM(C5:C7)</f>
-        <v>554.3900000000001</v>
-      </c>
-      <c r="D8" s="219">
+        <v>451</v>
+      </c>
+      <c r="D8" s="211">
         <f t="shared" si="0"/>
-        <v>554.38000000000011</v>
-      </c>
-      <c r="E8" s="219">
+        <v>451</v>
+      </c>
+      <c r="E8" s="211">
         <f t="shared" si="0"/>
-        <v>554.37</v>
-      </c>
-      <c r="F8" s="219">
+        <v>451</v>
+      </c>
+      <c r="F8" s="211">
         <f t="shared" si="0"/>
-        <v>554.38</v>
-      </c>
-      <c r="G8" s="219">
+        <v>451</v>
+      </c>
+      <c r="G8" s="211">
         <f t="shared" si="0"/>
-        <v>554.37</v>
-      </c>
-      <c r="H8" s="219">
+        <v>451</v>
+      </c>
+      <c r="H8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="I8" s="219">
+        <v>451</v>
+      </c>
+      <c r="I8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="J8" s="219">
+        <v>451</v>
+      </c>
+      <c r="J8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="K8" s="219">
+        <v>451</v>
+      </c>
+      <c r="K8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="L8" s="219">
+        <v>451</v>
+      </c>
+      <c r="L8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="M8" s="219">
+        <v>451</v>
+      </c>
+      <c r="M8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="N8" s="219">
+        <v>451</v>
+      </c>
+      <c r="N8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="O8" s="219">
+        <v>451</v>
+      </c>
+      <c r="O8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="P8" s="219">
+        <v>451</v>
+      </c>
+      <c r="P8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="Q8" s="219">
+        <v>451</v>
+      </c>
+      <c r="Q8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="R8" s="219">
+        <v>451</v>
+      </c>
+      <c r="R8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="S8" s="219">
+        <v>451</v>
+      </c>
+      <c r="S8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="T8" s="219">
+        <v>451</v>
+      </c>
+      <c r="T8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="U8" s="219">
+        <v>451</v>
+      </c>
+      <c r="U8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="V8" s="219">
+        <v>451</v>
+      </c>
+      <c r="V8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="W8" s="219">
+        <v>451</v>
+      </c>
+      <c r="W8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="X8" s="219">
+        <v>451</v>
+      </c>
+      <c r="X8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="Y8" s="219">
+        <v>451</v>
+      </c>
+      <c r="Y8" s="211">
         <f t="shared" si="0"/>
-        <v>594.4</v>
-      </c>
-      <c r="Z8" s="220">
+        <v>451</v>
+      </c>
+      <c r="Z8" s="212">
         <f>SUM(B8:Y8)</f>
-        <v>14025.459999999995</v>
+        <v>10824</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="222"/>
-      <c r="B9" s="227"/>
-      <c r="C9" s="227"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="227"/>
-      <c r="F9" s="227"/>
-      <c r="G9" s="227"/>
-      <c r="H9" s="227"/>
-      <c r="I9" s="227"/>
-      <c r="J9" s="227"/>
-      <c r="K9" s="227"/>
-      <c r="L9" s="227"/>
-      <c r="M9" s="227"/>
-      <c r="N9" s="227"/>
-      <c r="O9" s="227"/>
-      <c r="P9" s="227"/>
-      <c r="Q9" s="227"/>
-      <c r="R9" s="227"/>
-      <c r="S9" s="227"/>
-      <c r="T9" s="227"/>
-      <c r="U9" s="227"/>
-      <c r="V9" s="227"/>
-      <c r="W9" s="227"/>
-      <c r="X9" s="227"/>
-      <c r="Y9" s="227"/>
-      <c r="Z9" s="223"/>
+      <c r="A9" s="214"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="219"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="219"/>
+      <c r="O9" s="219"/>
+      <c r="P9" s="219"/>
+      <c r="Q9" s="219"/>
+      <c r="R9" s="219"/>
+      <c r="S9" s="219"/>
+      <c r="T9" s="219"/>
+      <c r="U9" s="219"/>
+      <c r="V9" s="219"/>
+      <c r="W9" s="219"/>
+      <c r="X9" s="219"/>
+      <c r="Y9" s="219"/>
+      <c r="Z9" s="215"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="222" t="s">
+      <c r="A10" s="214" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="221"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="221"/>
-      <c r="I10" s="221"/>
-      <c r="J10" s="221"/>
-      <c r="K10" s="221"/>
-      <c r="L10" s="221"/>
-      <c r="M10" s="221"/>
-      <c r="N10" s="221"/>
-      <c r="O10" s="221"/>
-      <c r="P10" s="221"/>
-      <c r="Q10" s="221"/>
-      <c r="R10" s="221"/>
-      <c r="S10" s="221"/>
-      <c r="T10" s="221"/>
-      <c r="U10" s="221"/>
-      <c r="V10" s="221"/>
-      <c r="W10" s="221"/>
-      <c r="X10" s="221"/>
-      <c r="Y10" s="221"/>
-      <c r="Z10" s="223"/>
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
+      <c r="L10" s="213"/>
+      <c r="M10" s="213"/>
+      <c r="N10" s="213"/>
+      <c r="O10" s="213"/>
+      <c r="P10" s="213"/>
+      <c r="Q10" s="213"/>
+      <c r="R10" s="213"/>
+      <c r="S10" s="213"/>
+      <c r="T10" s="213"/>
+      <c r="U10" s="213"/>
+      <c r="V10" s="213"/>
+      <c r="W10" s="213"/>
+      <c r="X10" s="213"/>
+      <c r="Y10" s="213"/>
+      <c r="Z10" s="215"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A11" s="226" t="s">
+      <c r="A11" s="218" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="221">
+      <c r="B11" s="213">
         <v>4.97</v>
       </c>
-      <c r="C11" s="221">
+      <c r="C11" s="213">
         <v>4.97</v>
       </c>
-      <c r="D11" s="221">
+      <c r="D11" s="213">
         <v>4.97</v>
       </c>
-      <c r="E11" s="221">
+      <c r="E11" s="213">
         <v>4.97</v>
       </c>
-      <c r="F11" s="221">
+      <c r="F11" s="213">
         <v>4.97</v>
       </c>
-      <c r="G11" s="221">
+      <c r="G11" s="213">
         <v>4.97</v>
       </c>
-      <c r="H11" s="221">
+      <c r="H11" s="213">
         <v>4.97</v>
       </c>
-      <c r="I11" s="221">
+      <c r="I11" s="213">
         <v>4.97</v>
       </c>
-      <c r="J11" s="221">
+      <c r="J11" s="213">
         <v>4.97</v>
       </c>
-      <c r="K11" s="221">
+      <c r="K11" s="213">
         <v>4.97</v>
       </c>
-      <c r="L11" s="221">
+      <c r="L11" s="213">
         <v>4.97</v>
       </c>
-      <c r="M11" s="221">
+      <c r="M11" s="213">
         <v>4.97</v>
       </c>
-      <c r="N11" s="221">
+      <c r="N11" s="213">
         <v>4.97</v>
       </c>
-      <c r="O11" s="221">
+      <c r="O11" s="213">
         <v>4.97</v>
       </c>
-      <c r="P11" s="221">
+      <c r="P11" s="213">
         <v>4.97</v>
       </c>
-      <c r="Q11" s="221">
+      <c r="Q11" s="213">
         <v>4.97</v>
       </c>
-      <c r="R11" s="221">
+      <c r="R11" s="213">
         <v>4.97</v>
       </c>
-      <c r="S11" s="221">
+      <c r="S11" s="213">
         <v>4.97</v>
       </c>
-      <c r="T11" s="221">
+      <c r="T11" s="213">
         <v>4.97</v>
       </c>
-      <c r="U11" s="221">
+      <c r="U11" s="213">
         <v>4.97</v>
       </c>
-      <c r="V11" s="221">
+      <c r="V11" s="213">
         <v>4.97</v>
       </c>
-      <c r="W11" s="221">
+      <c r="W11" s="213">
         <v>4.97</v>
       </c>
-      <c r="X11" s="221">
+      <c r="X11" s="213">
         <v>4.97</v>
       </c>
-      <c r="Y11" s="221">
+      <c r="Y11" s="213">
         <v>4.97</v>
       </c>
-      <c r="Z11" s="223">
+      <c r="Z11" s="215">
         <f>SUM(B11:Y11)</f>
         <v>119.27999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A12" s="226" t="s">
+      <c r="A12" s="218" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="221">
+      <c r="B12" s="213">
         <v>24.05</v>
       </c>
-      <c r="C12" s="221">
+      <c r="C12" s="213">
         <v>24.05</v>
       </c>
-      <c r="D12" s="221">
+      <c r="D12" s="213">
         <v>24.05</v>
       </c>
-      <c r="E12" s="221">
+      <c r="E12" s="213">
         <v>24.05</v>
       </c>
-      <c r="F12" s="221">
+      <c r="F12" s="213">
         <v>24.05</v>
       </c>
-      <c r="G12" s="221">
+      <c r="G12" s="213">
         <v>24.05</v>
       </c>
-      <c r="H12" s="221">
+      <c r="H12" s="213">
         <v>24.05</v>
       </c>
-      <c r="I12" s="221">
+      <c r="I12" s="213">
         <v>24.05</v>
       </c>
-      <c r="J12" s="221">
+      <c r="J12" s="213">
         <v>24.05</v>
       </c>
-      <c r="K12" s="221">
+      <c r="K12" s="213">
         <v>24.05</v>
       </c>
-      <c r="L12" s="221">
+      <c r="L12" s="213">
         <v>24.05</v>
       </c>
-      <c r="M12" s="221">
+      <c r="M12" s="213">
         <v>24.05</v>
       </c>
-      <c r="N12" s="221">
+      <c r="N12" s="213">
         <v>24.05</v>
       </c>
-      <c r="O12" s="221">
+      <c r="O12" s="213">
         <v>24.05</v>
       </c>
-      <c r="P12" s="221">
+      <c r="P12" s="213">
         <v>24.05</v>
       </c>
-      <c r="Q12" s="221">
+      <c r="Q12" s="213">
         <v>24.05</v>
       </c>
-      <c r="R12" s="221">
+      <c r="R12" s="213">
         <v>24.05</v>
       </c>
-      <c r="S12" s="221">
+      <c r="S12" s="213">
         <v>24.05</v>
       </c>
-      <c r="T12" s="221">
+      <c r="T12" s="213">
         <v>24.05</v>
       </c>
-      <c r="U12" s="221">
+      <c r="U12" s="213">
         <v>24.05</v>
       </c>
-      <c r="V12" s="221">
+      <c r="V12" s="213">
         <v>24.05</v>
       </c>
-      <c r="W12" s="221">
+      <c r="W12" s="213">
         <v>24.05</v>
       </c>
-      <c r="X12" s="221">
+      <c r="X12" s="213">
         <v>24.05</v>
       </c>
-      <c r="Y12" s="221">
+      <c r="Y12" s="213">
         <v>24.05</v>
       </c>
-      <c r="Z12" s="223">
+      <c r="Z12" s="215">
         <f>SUM(B12:Y12)</f>
         <v>577.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A13" s="226" t="s">
+      <c r="A13" s="218" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="221">
+      <c r="B13" s="213">
         <v>5.49</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="213">
         <v>5.49</v>
       </c>
-      <c r="D13" s="221">
+      <c r="D13" s="213">
         <v>5.49</v>
       </c>
-      <c r="E13" s="221">
+      <c r="E13" s="213">
         <v>5.49</v>
       </c>
-      <c r="F13" s="221">
+      <c r="F13" s="213">
         <v>5.49</v>
       </c>
-      <c r="G13" s="221">
+      <c r="G13" s="213">
         <v>5.49</v>
       </c>
-      <c r="H13" s="221">
+      <c r="H13" s="213">
         <v>5.49</v>
       </c>
-      <c r="I13" s="221">
+      <c r="I13" s="213">
         <v>5.49</v>
       </c>
-      <c r="J13" s="221">
+      <c r="J13" s="213">
         <v>5.49</v>
       </c>
-      <c r="K13" s="221">
+      <c r="K13" s="213">
         <v>5.49</v>
       </c>
-      <c r="L13" s="221">
+      <c r="L13" s="213">
         <v>5.49</v>
       </c>
-      <c r="M13" s="221">
+      <c r="M13" s="213">
         <v>5.49</v>
       </c>
-      <c r="N13" s="221">
+      <c r="N13" s="213">
         <v>5.49</v>
       </c>
-      <c r="O13" s="221">
+      <c r="O13" s="213">
         <v>5.49</v>
       </c>
-      <c r="P13" s="221">
+      <c r="P13" s="213">
         <v>5.49</v>
       </c>
-      <c r="Q13" s="221">
+      <c r="Q13" s="213">
         <v>5.49</v>
       </c>
-      <c r="R13" s="221">
+      <c r="R13" s="213">
         <v>5.49</v>
       </c>
-      <c r="S13" s="221">
+      <c r="S13" s="213">
         <v>5.49</v>
       </c>
-      <c r="T13" s="221">
+      <c r="T13" s="213">
         <v>5.49</v>
       </c>
-      <c r="U13" s="221">
+      <c r="U13" s="213">
         <v>5.49</v>
       </c>
-      <c r="V13" s="221">
+      <c r="V13" s="213">
         <v>5.49</v>
       </c>
-      <c r="W13" s="221">
+      <c r="W13" s="213">
         <v>5.49</v>
       </c>
-      <c r="X13" s="221">
+      <c r="X13" s="213">
         <v>5.49</v>
       </c>
-      <c r="Y13" s="221">
+      <c r="Y13" s="213">
         <v>5.49</v>
       </c>
-      <c r="Z13" s="223">
+      <c r="Z13" s="215">
         <f>SUM(B13:Y13)</f>
         <v>131.75999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A14" s="218" t="s">
+      <c r="A14" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="219">
+      <c r="B14" s="211">
         <f>SUM(B11:B13)</f>
         <v>34.51</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="211">
         <f t="shared" ref="C14:Y14" si="1">SUM(C11:C13)</f>
         <v>34.51</v>
       </c>
-      <c r="D14" s="219">
+      <c r="D14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="E14" s="219">
+      <c r="E14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="F14" s="219">
+      <c r="F14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="G14" s="219">
+      <c r="G14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="H14" s="219">
+      <c r="H14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="I14" s="219">
+      <c r="I14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="J14" s="219">
+      <c r="J14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="K14" s="219">
+      <c r="K14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="L14" s="219">
+      <c r="L14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="M14" s="219">
+      <c r="M14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="N14" s="219">
+      <c r="N14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="O14" s="219">
+      <c r="O14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="P14" s="219">
+      <c r="P14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="Q14" s="219">
+      <c r="Q14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="R14" s="219">
+      <c r="R14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="S14" s="219">
+      <c r="S14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="T14" s="219">
+      <c r="T14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="U14" s="219">
+      <c r="U14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="V14" s="219">
+      <c r="V14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="W14" s="219">
+      <c r="W14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="X14" s="219">
+      <c r="X14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="Y14" s="219">
+      <c r="Y14" s="211">
         <f t="shared" si="1"/>
         <v>34.51</v>
       </c>
-      <c r="Z14" s="220">
+      <c r="Z14" s="212">
         <f>SUM(B14:Y14)</f>
         <v>828.2399999999999</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A15" s="222"/>
-      <c r="Z15" s="228"/>
+      <c r="A15" s="214"/>
+      <c r="Z15" s="220"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="229" t="s">
+      <c r="A16" s="221" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="230">
+      <c r="B16" s="222">
         <v>150</v>
       </c>
-      <c r="C16" s="230">
+      <c r="C16" s="222">
         <v>150</v>
       </c>
-      <c r="D16" s="230">
+      <c r="D16" s="222">
         <v>150</v>
       </c>
-      <c r="E16" s="230">
+      <c r="E16" s="222">
         <v>150</v>
       </c>
-      <c r="F16" s="230">
+      <c r="F16" s="222">
         <v>150</v>
       </c>
-      <c r="G16" s="230">
+      <c r="G16" s="222">
         <v>150</v>
       </c>
-      <c r="H16" s="230">
+      <c r="H16" s="222">
         <v>157.01</v>
       </c>
-      <c r="I16" s="230">
+      <c r="I16" s="222">
         <v>157.01</v>
       </c>
-      <c r="J16" s="230">
+      <c r="J16" s="222">
         <v>157.01</v>
       </c>
-      <c r="K16" s="230">
+      <c r="K16" s="222">
         <v>157.01</v>
       </c>
-      <c r="L16" s="230">
+      <c r="L16" s="222">
         <v>157.01</v>
       </c>
-      <c r="M16" s="230">
+      <c r="M16" s="222">
         <v>157.01</v>
       </c>
-      <c r="N16" s="230">
+      <c r="N16" s="222">
         <v>157.01</v>
       </c>
-      <c r="O16" s="230">
+      <c r="O16" s="222">
         <v>157.01</v>
       </c>
-      <c r="P16" s="230">
+      <c r="P16" s="222">
         <v>157.01</v>
       </c>
-      <c r="Q16" s="230">
+      <c r="Q16" s="222">
         <v>157.01</v>
       </c>
-      <c r="R16" s="230">
+      <c r="R16" s="222">
         <v>157.01</v>
       </c>
-      <c r="S16" s="230">
+      <c r="S16" s="222">
         <v>157.01</v>
       </c>
-      <c r="T16" s="230">
+      <c r="T16" s="222">
         <v>157.01</v>
       </c>
-      <c r="U16" s="230">
+      <c r="U16" s="222">
         <v>157.01</v>
       </c>
-      <c r="V16" s="230">
+      <c r="V16" s="222">
         <v>157.01</v>
       </c>
-      <c r="W16" s="230">
+      <c r="W16" s="222">
         <v>157.01</v>
       </c>
-      <c r="X16" s="230">
+      <c r="X16" s="222">
         <v>157.01</v>
       </c>
-      <c r="Y16" s="230">
+      <c r="Y16" s="222">
         <v>157.01</v>
       </c>
-      <c r="Z16" s="231">
+      <c r="Z16" s="223">
         <f>SUM(B16:Y16)</f>
         <v>3726.1800000000021</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="Z17" s="228"/>
+      <c r="Z17" s="220"/>
     </row>
     <row r="18" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="232" t="s">
+      <c r="A18" s="224" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="233">
-        <f>B2-B8-B14-B16</f>
-        <v>2261.12</v>
-      </c>
-      <c r="C18" s="233">
-        <f t="shared" ref="C18:Y18" si="2">C2-C8-C14-C16</f>
-        <v>2261.0999999999995</v>
-      </c>
-      <c r="D18" s="233">
+      <c r="B18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="C18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="H18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="J18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="K18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="L18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="M18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="N18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="O18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="P18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="Q18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="R18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="S18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="T18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="U18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="V18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="W18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="X18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="Y18" s="225">
+        <v>2000</v>
+      </c>
+      <c r="Z18" s="226">
+        <f>SUM(B18:Y18)</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="209"/>
+      <c r="J19" s="209"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="Z19" s="220"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A20" s="214"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="213" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="213"/>
+      <c r="K20" s="213"/>
+      <c r="L20" s="213"/>
+      <c r="M20" s="213"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
+      <c r="P20" s="213"/>
+      <c r="Q20" s="213"/>
+      <c r="R20" s="213"/>
+      <c r="S20" s="213"/>
+      <c r="T20" s="213"/>
+      <c r="U20" s="213"/>
+      <c r="V20" s="213"/>
+      <c r="W20" s="213"/>
+      <c r="X20" s="213"/>
+      <c r="Y20" s="213"/>
+      <c r="Z20" s="215"/>
+      <c r="AD20" s="218"/>
+      <c r="AE20" s="227"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" s="214" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="213"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="213"/>
+      <c r="K21" s="213"/>
+      <c r="L21" s="213"/>
+      <c r="M21" s="213"/>
+      <c r="N21" s="213"/>
+      <c r="O21" s="213"/>
+      <c r="P21" s="213"/>
+      <c r="Q21" s="213"/>
+      <c r="R21" s="213"/>
+      <c r="S21" s="213"/>
+      <c r="T21" s="213"/>
+      <c r="U21" s="213"/>
+      <c r="V21" s="213"/>
+      <c r="W21" s="213"/>
+      <c r="X21" s="213"/>
+      <c r="Y21" s="213"/>
+      <c r="Z21" s="215"/>
+      <c r="AD21" s="218"/>
+      <c r="AE21" s="227"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" s="218" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="228">
+        <f>B5/B2</f>
+        <v>0.104</v>
+      </c>
+      <c r="C22" s="228">
+        <f t="shared" ref="C22:Z22" si="2">C5/C2</f>
+        <v>0.104</v>
+      </c>
+      <c r="D22" s="228">
         <f t="shared" si="2"/>
-        <v>2261.1099999999997</v>
-      </c>
-      <c r="E18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="E22" s="228">
         <f t="shared" si="2"/>
-        <v>2261.12</v>
-      </c>
-      <c r="F18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="F22" s="228">
         <f t="shared" si="2"/>
-        <v>2261.1099999999997</v>
-      </c>
-      <c r="G18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="G22" s="228">
         <f t="shared" si="2"/>
-        <v>2261.12</v>
-      </c>
-      <c r="H18" s="233">
-        <f>H2-H8-H14-H16</f>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="I18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="H22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="J18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="I22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="K18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="J22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="L18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="K22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="M18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="L22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="N18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="M22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="O18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="N22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="P18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="O22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="Q18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="P22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="R18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="Q22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="S18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="R22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="T18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="S22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="U18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="T22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="V18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="U22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="W18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="V22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="X18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="W22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="Y18" s="233">
+        <v>0.104</v>
+      </c>
+      <c r="X22" s="228">
         <f t="shared" si="2"/>
-        <v>2354.1799999999994</v>
-      </c>
-      <c r="Z18" s="234">
-        <f>SUM(B18:Y18)</f>
-        <v>55941.919999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I19" s="217"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="221"/>
-      <c r="L19" s="221"/>
-      <c r="Z19" s="228"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="222"/>
-      <c r="B20" s="221"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="221"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="221" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="221"/>
-      <c r="K20" s="221"/>
-      <c r="L20" s="221"/>
-      <c r="M20" s="221"/>
-      <c r="N20" s="221"/>
-      <c r="O20" s="221"/>
-      <c r="P20" s="221"/>
-      <c r="Q20" s="221"/>
-      <c r="R20" s="221"/>
-      <c r="S20" s="221"/>
-      <c r="T20" s="221"/>
-      <c r="U20" s="221"/>
-      <c r="V20" s="221"/>
-      <c r="W20" s="221"/>
-      <c r="X20" s="221"/>
-      <c r="Y20" s="221"/>
-      <c r="Z20" s="223"/>
-      <c r="AD20" s="226"/>
-      <c r="AE20" s="235"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="222" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="221"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="221"/>
-      <c r="J21" s="221"/>
-      <c r="K21" s="221"/>
-      <c r="L21" s="221"/>
-      <c r="M21" s="221"/>
-      <c r="N21" s="221"/>
-      <c r="O21" s="221"/>
-      <c r="P21" s="221"/>
-      <c r="Q21" s="221"/>
-      <c r="R21" s="221"/>
-      <c r="S21" s="221"/>
-      <c r="T21" s="221"/>
-      <c r="U21" s="221"/>
-      <c r="V21" s="221"/>
-      <c r="W21" s="221"/>
-      <c r="X21" s="221"/>
-      <c r="Y21" s="221"/>
-      <c r="Z21" s="223"/>
-      <c r="AD21" s="226"/>
-      <c r="AE21" s="235"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="226" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="236">
-        <f>B5/B2</f>
-        <v>0.10907666666666667</v>
-      </c>
-      <c r="C22" s="236">
-        <f t="shared" ref="C22:Z22" si="3">C5/C2</f>
-        <v>0.10907666666666667</v>
-      </c>
-      <c r="D22" s="236">
+        <v>0.104</v>
+      </c>
+      <c r="Y22" s="228">
+        <f t="shared" si="2"/>
+        <v>0.104</v>
+      </c>
+      <c r="Z22" s="229">
+        <f t="shared" si="2"/>
+        <v>0.104</v>
+      </c>
+      <c r="AD22" s="218"/>
+      <c r="AE22" s="227"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23" s="218" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="228">
+        <f>B6/B2</f>
+        <v>6.2E-2</v>
+      </c>
+      <c r="C23" s="228">
+        <f t="shared" ref="C23:Z23" si="3">C6/C2</f>
+        <v>6.2E-2</v>
+      </c>
+      <c r="D23" s="228">
         <f t="shared" si="3"/>
-        <v>0.10907666666666667</v>
-      </c>
-      <c r="E22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E23" s="228">
         <f t="shared" si="3"/>
-        <v>0.10907666666666667</v>
-      </c>
-      <c r="F22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F23" s="228">
         <f t="shared" si="3"/>
-        <v>0.10907666666666667</v>
-      </c>
-      <c r="G22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G23" s="228">
         <f t="shared" si="3"/>
-        <v>0.10907666666666667</v>
-      </c>
-      <c r="H22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="I22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="J22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="K22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="L22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="L23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="M22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="N22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="O22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="O23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="P22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="P23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="Q22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Q23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="R22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="R23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="S22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="S23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="T22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="T23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="U22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="U23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="V22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="V23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="W22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="W23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="X22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="X23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="Y22" s="236">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Y23" s="228">
         <f t="shared" si="3"/>
-        <v>0.11353460080889144</v>
-      </c>
-      <c r="Z22" s="237">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Z23" s="229">
         <f t="shared" si="3"/>
-        <v>0.11245783113129318</v>
-      </c>
-      <c r="AD22" s="226"/>
-      <c r="AE22" s="235"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="226" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="236">
-        <f>B6/B2</f>
-        <v>6.1363333333333332E-2</v>
-      </c>
-      <c r="C23" s="236">
-        <f t="shared" ref="C23:Z23" si="4">C6/C2</f>
-        <v>6.1366666666666667E-2</v>
-      </c>
-      <c r="D23" s="236">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" s="218" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="228">
+        <f>B7/B2</f>
+        <v>1.44E-2</v>
+      </c>
+      <c r="C24" s="228">
+        <f t="shared" ref="C24:Z24" si="4">C7/C2</f>
+        <v>1.44E-2</v>
+      </c>
+      <c r="D24" s="228">
         <f t="shared" si="4"/>
-        <v>6.1363333333333332E-2</v>
-      </c>
-      <c r="E23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="E24" s="228">
         <f t="shared" si="4"/>
-        <v>6.1363333333333332E-2</v>
-      </c>
-      <c r="F23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="F24" s="228">
         <f t="shared" si="4"/>
-        <v>6.1366666666666667E-2</v>
-      </c>
-      <c r="G23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="G24" s="228">
         <f t="shared" si="4"/>
-        <v>6.1363333333333332E-2</v>
-      </c>
-      <c r="H23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="H24" s="228">
+        <f>H7/H2</f>
+        <v>1.44E-2</v>
+      </c>
+      <c r="I24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="I23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="J24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="J23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="K24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="K23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="L24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="L23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="M24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="M23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="N24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="N23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="O24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="O23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="P24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="P23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="Q24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="Q23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="R24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="R23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="S24" s="228">
+        <f>S7/S2</f>
+        <v>1.44E-2</v>
+      </c>
+      <c r="T24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="S23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="U24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="T23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="V24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="U23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="W24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="V23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="X24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="W23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="Y24" s="228">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="X23" s="236">
+        <v>1.44E-2</v>
+      </c>
+      <c r="Z24" s="229">
         <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="Y23" s="236">
-        <f t="shared" si="4"/>
-        <v>6.139931849304163E-2</v>
-      </c>
-      <c r="Z23" s="237">
-        <f t="shared" si="4"/>
-        <v>6.1390895013271315E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="226" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="236">
-        <f>B7/B2</f>
-        <v>1.435E-2</v>
-      </c>
-      <c r="C24" s="236">
-        <f t="shared" ref="C24:Z24" si="5">C7/C2</f>
-        <v>1.4353333333333334E-2</v>
-      </c>
-      <c r="D24" s="236">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" s="210" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="230">
+        <f>B8/B2</f>
+        <v>0.1804</v>
+      </c>
+      <c r="C25" s="230">
+        <f t="shared" ref="C25:Z25" si="5">C8/C2</f>
+        <v>0.1804</v>
+      </c>
+      <c r="D25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4353333333333334E-2</v>
-      </c>
-      <c r="E24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="E25" s="230">
         <f t="shared" si="5"/>
-        <v>1.435E-2</v>
-      </c>
-      <c r="F24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="F25" s="230">
         <f t="shared" si="5"/>
-        <v>1.435E-2</v>
-      </c>
-      <c r="G24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="G25" s="230">
         <f t="shared" si="5"/>
-        <v>1.435E-2</v>
-      </c>
-      <c r="H24" s="236">
-        <f>H7/H2</f>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="I24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="H25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="J24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="I25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="K24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="J25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="L24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="K25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="M24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="L25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="N24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="M25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="O24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="N25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="P24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="O25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="Q24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="P25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="R24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="Q25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="S24" s="236">
-        <f>S7/S2</f>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="T24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="R25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="U24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="S25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="V24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="T25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="W24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="U25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="X24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="V25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="Y24" s="236">
+        <v>0.1804</v>
+      </c>
+      <c r="W25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4359415305245057E-2</v>
-      </c>
-      <c r="Z24" s="237">
+        <v>0.1804</v>
+      </c>
+      <c r="X25" s="230">
         <f t="shared" si="5"/>
-        <v>1.4357409509700526E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="218" t="s">
+        <v>0.1804</v>
+      </c>
+      <c r="Y25" s="230">
+        <f t="shared" si="5"/>
+        <v>0.1804</v>
+      </c>
+      <c r="Z25" s="231">
+        <f t="shared" si="5"/>
+        <v>0.1804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26" s="214"/>
+      <c r="B26" s="232"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="232"/>
+      <c r="G26" s="232"/>
+      <c r="H26" s="232"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="232"/>
+      <c r="K26" s="232"/>
+      <c r="L26" s="232"/>
+      <c r="M26" s="232"/>
+      <c r="N26" s="232"/>
+      <c r="O26" s="232"/>
+      <c r="P26" s="232"/>
+      <c r="Q26" s="232"/>
+      <c r="R26" s="232"/>
+      <c r="S26" s="232"/>
+      <c r="T26" s="232"/>
+      <c r="U26" s="232"/>
+      <c r="V26" s="232"/>
+      <c r="W26" s="232"/>
+      <c r="X26" s="232"/>
+      <c r="Y26" s="232"/>
+      <c r="Z26" s="229"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A27" s="214" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="228"/>
+      <c r="C27" s="228"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="228"/>
+      <c r="J27" s="228"/>
+      <c r="K27" s="228"/>
+      <c r="L27" s="228"/>
+      <c r="M27" s="228"/>
+      <c r="N27" s="228"/>
+      <c r="O27" s="228"/>
+      <c r="P27" s="228"/>
+      <c r="Q27" s="228"/>
+      <c r="R27" s="228"/>
+      <c r="S27" s="228"/>
+      <c r="T27" s="228"/>
+      <c r="U27" s="228"/>
+      <c r="V27" s="228"/>
+      <c r="W27" s="228"/>
+      <c r="X27" s="228"/>
+      <c r="Y27" s="228"/>
+      <c r="Z27" s="229"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A28" s="218" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="228">
+        <f>B11/B2</f>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="C28" s="228">
+        <f t="shared" ref="C28:Z28" si="6">C11/C2</f>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="D28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="E28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="F28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="G28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="H28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="I28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="J28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="K28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="L28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="M28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="N28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="O28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="P28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="Q28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="R28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="S28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="T28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="U28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="V28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="W28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="X28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="Y28" s="228">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+      <c r="Z28" s="229">
+        <f t="shared" si="6"/>
+        <v>1.9879999999999997E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A29" s="218" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="228">
+        <f>B12/B2</f>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="C29" s="228">
+        <f t="shared" ref="C29:Z29" si="7">C12/C2</f>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="D29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="E29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="F29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="G29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="H29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="I29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="J29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="K29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="L29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="M29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="N29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="O29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="P29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="Q29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="R29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="S29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="T29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="U29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="V29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="W29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="X29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="Y29" s="228">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="Z29" s="229">
+        <f t="shared" si="7"/>
+        <v>9.6200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A30" s="218" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="228">
+        <f>B13/B2</f>
+        <v>2.196E-3</v>
+      </c>
+      <c r="C30" s="228">
+        <f t="shared" ref="C30:Z30" si="8">C13/C2</f>
+        <v>2.196E-3</v>
+      </c>
+      <c r="D30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="E30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="F30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="G30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="H30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="I30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="J30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="K30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="L30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="M30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="N30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="O30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="P30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="Q30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="R30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="S30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="T30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="U30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="V30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="W30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="X30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="Y30" s="228">
+        <f t="shared" si="8"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="Z30" s="229">
+        <f t="shared" si="8"/>
+        <v>2.1959999999999992E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A31" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="238">
-        <f>B8/B2</f>
-        <v>0.18479000000000001</v>
-      </c>
-      <c r="C25" s="238">
-        <f t="shared" ref="C25:Z25" si="6">C8/C2</f>
-        <v>0.18479666666666669</v>
-      </c>
-      <c r="D25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18479333333333336</v>
-      </c>
-      <c r="E25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18479000000000001</v>
-      </c>
-      <c r="F25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18479333333333334</v>
-      </c>
-      <c r="G25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18479000000000001</v>
-      </c>
-      <c r="H25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="I25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="J25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="K25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="L25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="M25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="N25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="O25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="P25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="Q25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="R25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="S25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="T25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="U25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="V25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="W25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="X25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="Y25" s="238">
-        <f t="shared" si="6"/>
-        <v>0.18929333460717812</v>
-      </c>
-      <c r="Z25" s="239">
-        <f t="shared" si="6"/>
-        <v>0.18820613565426489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="222"/>
-      <c r="B26" s="240"/>
-      <c r="C26" s="240"/>
-      <c r="D26" s="240"/>
-      <c r="E26" s="240"/>
-      <c r="F26" s="240"/>
-      <c r="G26" s="240"/>
-      <c r="H26" s="240"/>
-      <c r="I26" s="240"/>
-      <c r="J26" s="240"/>
-      <c r="K26" s="240"/>
-      <c r="L26" s="240"/>
-      <c r="M26" s="240"/>
-      <c r="N26" s="240"/>
-      <c r="O26" s="240"/>
-      <c r="P26" s="240"/>
-      <c r="Q26" s="240"/>
-      <c r="R26" s="240"/>
-      <c r="S26" s="240"/>
-      <c r="T26" s="240"/>
-      <c r="U26" s="240"/>
-      <c r="V26" s="240"/>
-      <c r="W26" s="240"/>
-      <c r="X26" s="240"/>
-      <c r="Y26" s="240"/>
-      <c r="Z26" s="237"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="222" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="236"/>
-      <c r="F27" s="236"/>
-      <c r="G27" s="236"/>
-      <c r="H27" s="236"/>
-      <c r="I27" s="236"/>
-      <c r="J27" s="236"/>
-      <c r="K27" s="236"/>
-      <c r="L27" s="236"/>
-      <c r="M27" s="236"/>
-      <c r="N27" s="236"/>
-      <c r="O27" s="236"/>
-      <c r="P27" s="236"/>
-      <c r="Q27" s="236"/>
-      <c r="R27" s="236"/>
-      <c r="S27" s="236"/>
-      <c r="T27" s="236"/>
-      <c r="U27" s="236"/>
-      <c r="V27" s="236"/>
-      <c r="W27" s="236"/>
-      <c r="X27" s="236"/>
-      <c r="Y27" s="236"/>
-      <c r="Z27" s="237"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="226" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="236">
-        <f>B11/B2</f>
-        <v>1.6566666666666665E-3</v>
-      </c>
-      <c r="C28" s="236">
-        <f t="shared" ref="C28:Z28" si="7">C11/C2</f>
-        <v>1.6566666666666665E-3</v>
-      </c>
-      <c r="D28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.6566666666666665E-3</v>
-      </c>
-      <c r="E28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.6566666666666665E-3</v>
-      </c>
-      <c r="F28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.6566666666666665E-3</v>
-      </c>
-      <c r="G28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.6566666666666665E-3</v>
-      </c>
-      <c r="H28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="I28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="J28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="K28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="L28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="M28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="N28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="O28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="P28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="Q28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="R28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="S28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="T28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="U28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="V28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="W28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="X28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="Y28" s="236">
-        <f t="shared" si="7"/>
-        <v>1.5827521416515397E-3</v>
-      </c>
-      <c r="Z28" s="237">
-        <f t="shared" si="7"/>
-        <v>1.6006054604156101E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="226" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="236">
-        <f>B12/B2</f>
-        <v>8.0166666666666667E-3</v>
-      </c>
-      <c r="C29" s="236">
-        <f t="shared" ref="C29:Z29" si="8">C12/C2</f>
-        <v>8.0166666666666667E-3</v>
-      </c>
-      <c r="D29" s="236">
-        <f t="shared" si="8"/>
-        <v>8.0166666666666667E-3</v>
-      </c>
-      <c r="E29" s="236">
-        <f t="shared" si="8"/>
-        <v>8.0166666666666667E-3</v>
-      </c>
-      <c r="F29" s="236">
-        <f t="shared" si="8"/>
-        <v>8.0166666666666667E-3</v>
-      </c>
-      <c r="G29" s="236">
-        <f t="shared" si="8"/>
-        <v>8.0166666666666667E-3</v>
-      </c>
-      <c r="H29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="I29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="J29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="K29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="L29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="M29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="N29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="O29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="P29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="Q29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="R29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="S29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="T29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="U29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="V29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="W29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="X29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="Y29" s="236">
-        <f t="shared" si="8"/>
-        <v>7.658991751855037E-3</v>
-      </c>
-      <c r="Z29" s="237">
-        <f t="shared" si="8"/>
-        <v>7.7453845720312732E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="226" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="236">
-        <f>B13/B2</f>
-        <v>1.83E-3</v>
-      </c>
-      <c r="C30" s="236">
-        <f t="shared" ref="C30:Z30" si="9">C13/C2</f>
-        <v>1.83E-3</v>
-      </c>
-      <c r="D30" s="236">
+      <c r="B31" s="230">
+        <f>B14/B2</f>
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="C31" s="230">
+        <f t="shared" ref="C31:Z31" si="9">C14/C2</f>
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="D31" s="230">
         <f t="shared" si="9"/>
-        <v>1.83E-3</v>
-      </c>
-      <c r="E30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="E31" s="230">
         <f t="shared" si="9"/>
-        <v>1.83E-3</v>
-      </c>
-      <c r="F30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="F31" s="230">
         <f t="shared" si="9"/>
-        <v>1.83E-3</v>
-      </c>
-      <c r="G30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="G31" s="230">
         <f t="shared" si="9"/>
-        <v>1.83E-3</v>
-      </c>
-      <c r="H30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="H31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="I30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="I31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="J30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="J31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="K30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="K31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="L30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="L31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="M30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="M31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="N30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="N31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="O30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="O31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="P30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="P31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="Q30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="Q31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="R30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="R31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="S30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="S31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="T30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="T31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="U30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="U31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="V30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="V31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="W30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="W31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="X30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="X31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="Y30" s="236">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="Y31" s="230">
         <f t="shared" si="9"/>
-        <v>1.7483519633132705E-3</v>
-      </c>
-      <c r="Z30" s="237">
+        <v>1.3803999999999999E-2</v>
+      </c>
+      <c r="Z31" s="231">
         <f t="shared" si="9"/>
-        <v>1.7680732349460155E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="218" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="238">
-        <f>B14/B2</f>
-        <v>1.1503333333333332E-2</v>
-      </c>
-      <c r="C31" s="238">
-        <f t="shared" ref="C31:Z31" si="10">C14/C2</f>
-        <v>1.1503333333333332E-2</v>
-      </c>
-      <c r="D31" s="238">
+        <v>1.3803999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A32" s="214"/>
+      <c r="B32" s="228"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="228"/>
+      <c r="F32" s="228"/>
+      <c r="G32" s="228"/>
+      <c r="H32" s="228"/>
+      <c r="I32" s="228"/>
+      <c r="J32" s="228"/>
+      <c r="K32" s="228"/>
+      <c r="L32" s="228"/>
+      <c r="M32" s="228"/>
+      <c r="N32" s="228"/>
+      <c r="O32" s="228"/>
+      <c r="P32" s="228"/>
+      <c r="Q32" s="228"/>
+      <c r="R32" s="228"/>
+      <c r="S32" s="228"/>
+      <c r="T32" s="228"/>
+      <c r="U32" s="228"/>
+      <c r="V32" s="228"/>
+      <c r="W32" s="228"/>
+      <c r="X32" s="228"/>
+      <c r="Y32" s="228"/>
+      <c r="Z32" s="229"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="221" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="230">
+        <f>B16/B2</f>
+        <v>0.06</v>
+      </c>
+      <c r="C33" s="230">
+        <f t="shared" ref="C33:Z33" si="10">C16/C2</f>
+        <v>0.06</v>
+      </c>
+      <c r="D33" s="230">
         <f t="shared" si="10"/>
-        <v>1.1503333333333332E-2</v>
-      </c>
-      <c r="E31" s="238">
+        <v>0.06</v>
+      </c>
+      <c r="E33" s="230">
         <f t="shared" si="10"/>
-        <v>1.1503333333333332E-2</v>
-      </c>
-      <c r="F31" s="238">
+        <v>0.06</v>
+      </c>
+      <c r="F33" s="230">
         <f t="shared" si="10"/>
-        <v>1.1503333333333332E-2</v>
-      </c>
-      <c r="G31" s="238">
+        <v>0.06</v>
+      </c>
+      <c r="G33" s="230">
         <f t="shared" si="10"/>
-        <v>1.1503333333333332E-2</v>
-      </c>
-      <c r="H31" s="238">
+        <v>0.06</v>
+      </c>
+      <c r="H33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="I31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="I33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="J31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="J33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="K31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="K33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="L31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="L33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="M31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="M33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="N31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="N33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="O31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="O33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="P31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="P33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="Q31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="Q33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="R31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="R33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="S31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="S33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="T31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="T33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="U31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="U33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="V31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="V33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="W31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="W33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="X31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="X33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="Y31" s="238">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="Y33" s="230">
         <f t="shared" si="10"/>
-        <v>1.0990095856819846E-2</v>
-      </c>
-      <c r="Z31" s="239">
+        <v>6.2803999999999999E-2</v>
+      </c>
+      <c r="Z33" s="231">
         <f t="shared" si="10"/>
-        <v>1.1114063267392898E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="222"/>
-      <c r="B32" s="236"/>
-      <c r="C32" s="236"/>
-      <c r="D32" s="236"/>
-      <c r="E32" s="236"/>
-      <c r="F32" s="236"/>
-      <c r="G32" s="236"/>
-      <c r="H32" s="236"/>
-      <c r="I32" s="236"/>
-      <c r="J32" s="236"/>
-      <c r="K32" s="236"/>
-      <c r="L32" s="236"/>
-      <c r="M32" s="236"/>
-      <c r="N32" s="236"/>
-      <c r="O32" s="236"/>
-      <c r="P32" s="236"/>
-      <c r="Q32" s="236"/>
-      <c r="R32" s="236"/>
-      <c r="S32" s="236"/>
-      <c r="T32" s="236"/>
-      <c r="U32" s="236"/>
-      <c r="V32" s="236"/>
-      <c r="W32" s="236"/>
-      <c r="X32" s="236"/>
-      <c r="Y32" s="236"/>
-      <c r="Z32" s="237"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="229" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="238">
-        <f>B16/B2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C33" s="238">
-        <f t="shared" ref="C33:Z33" si="11">C16/C2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D33" s="238">
+        <v>6.2103000000000033E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B34" s="228"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="228"/>
+      <c r="F34" s="228"/>
+      <c r="G34" s="228"/>
+      <c r="H34" s="228"/>
+      <c r="I34" s="228"/>
+      <c r="J34" s="228"/>
+      <c r="K34" s="228"/>
+      <c r="L34" s="228"/>
+      <c r="M34" s="228"/>
+      <c r="N34" s="228"/>
+      <c r="O34" s="228"/>
+      <c r="P34" s="228"/>
+      <c r="Q34" s="228"/>
+      <c r="R34" s="228"/>
+      <c r="S34" s="228"/>
+      <c r="T34" s="228"/>
+      <c r="U34" s="228"/>
+      <c r="V34" s="228"/>
+      <c r="W34" s="228"/>
+      <c r="X34" s="228"/>
+      <c r="Y34" s="228"/>
+      <c r="Z34" s="229"/>
+    </row>
+    <row r="35" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="224" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="233">
+        <f>B18/B2</f>
+        <v>0.8</v>
+      </c>
+      <c r="C35" s="233">
+        <f t="shared" ref="C35:Y35" si="11">C18/C2</f>
+        <v>0.8</v>
+      </c>
+      <c r="D35" s="233">
         <f t="shared" si="11"/>
-        <v>0.05</v>
-      </c>
-      <c r="E33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="E35" s="233">
         <f t="shared" si="11"/>
-        <v>0.05</v>
-      </c>
-      <c r="F33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="F35" s="233">
         <f t="shared" si="11"/>
-        <v>0.05</v>
-      </c>
-      <c r="G33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="G35" s="233">
         <f t="shared" si="11"/>
-        <v>0.05</v>
-      </c>
-      <c r="H33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="H35" s="233">
+        <f>H18/H2</f>
+        <v>0.8</v>
+      </c>
+      <c r="I35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="I33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="J35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="J33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="K35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="K33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="L35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="L33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="M35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="M33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="N35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="N33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="O35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="O33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="P35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="P33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="Q35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="Q33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="R35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="R33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="S35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="S33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="T35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="T33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="U35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="U33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="V35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="V33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="W35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="W33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="X35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="X33" s="238">
+        <v>0.8</v>
+      </c>
+      <c r="Y35" s="233">
         <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="Y33" s="238">
-        <f t="shared" si="11"/>
-        <v>5.0001592305977519E-2</v>
-      </c>
-      <c r="Z33" s="239">
-        <f t="shared" si="11"/>
-        <v>5.0001207700297132E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B34" s="236"/>
-      <c r="C34" s="236"/>
-      <c r="D34" s="236"/>
-      <c r="E34" s="236"/>
-      <c r="F34" s="236"/>
-      <c r="G34" s="236"/>
-      <c r="H34" s="236"/>
-      <c r="I34" s="236"/>
-      <c r="J34" s="236"/>
-      <c r="K34" s="236"/>
-      <c r="L34" s="236"/>
-      <c r="M34" s="236"/>
-      <c r="N34" s="236"/>
-      <c r="O34" s="236"/>
-      <c r="P34" s="236"/>
-      <c r="Q34" s="236"/>
-      <c r="R34" s="236"/>
-      <c r="S34" s="236"/>
-      <c r="T34" s="236"/>
-      <c r="U34" s="236"/>
-      <c r="V34" s="236"/>
-      <c r="W34" s="236"/>
-      <c r="X34" s="236"/>
-      <c r="Y34" s="236"/>
-      <c r="Z34" s="237"/>
-    </row>
-    <row r="35" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="232" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="241">
-        <f>B18/B2</f>
-        <v>0.75370666666666664</v>
-      </c>
-      <c r="C35" s="241">
-        <f t="shared" ref="C35:Y35" si="12">C18/C2</f>
-        <v>0.75369999999999981</v>
-      </c>
-      <c r="D35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.75370333333333317</v>
-      </c>
-      <c r="E35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.75370666666666664</v>
-      </c>
-      <c r="F35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.75370333333333317</v>
-      </c>
-      <c r="G35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.75370666666666664</v>
-      </c>
-      <c r="H35" s="241">
-        <f>H18/H2</f>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="I35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="J35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="K35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="L35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="M35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="N35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="O35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="P35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="Q35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="R35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="S35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="T35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="U35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="V35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="W35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="X35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="Y35" s="241">
-        <f t="shared" si="12"/>
-        <v>0.74971497723002434</v>
-      </c>
-      <c r="Z35" s="242">
+        <v>0.8</v>
+      </c>
+      <c r="Z35" s="234">
         <f>Z18/Z2</f>
-        <v>0.75067859337804521</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="221"/>
-      <c r="I36" s="217"/>
-      <c r="J36" s="217"/>
-      <c r="K36" s="221"/>
-      <c r="L36" s="221"/>
-      <c r="U36" s="221"/>
-      <c r="V36" s="217"/>
+      <c r="H36" s="213"/>
+      <c r="I36" s="209"/>
+      <c r="J36" s="209"/>
+      <c r="K36" s="213"/>
+      <c r="L36" s="213"/>
+      <c r="U36" s="213"/>
+      <c r="V36" s="209"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G37" s="221"/>
-      <c r="H37" s="221"/>
-      <c r="I37" s="217"/>
-      <c r="J37" s="217"/>
-      <c r="K37" s="221"/>
-      <c r="L37" s="221"/>
-      <c r="U37" s="221"/>
-      <c r="V37" s="217"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="209"/>
+      <c r="J37" s="209"/>
+      <c r="K37" s="213"/>
+      <c r="L37" s="213"/>
+      <c r="U37" s="213"/>
+      <c r="V37" s="209"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G38" s="221"/>
-      <c r="H38" s="221"/>
-      <c r="I38" s="217"/>
-      <c r="J38" s="217"/>
-      <c r="K38" s="221"/>
-      <c r="L38" s="221"/>
-      <c r="U38" s="221"/>
-      <c r="V38" s="217"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="209"/>
+      <c r="J38" s="209"/>
+      <c r="K38" s="213"/>
+      <c r="L38" s="213"/>
+      <c r="U38" s="213"/>
+      <c r="V38" s="209"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="I39" s="217"/>
-      <c r="K39" s="221"/>
-      <c r="L39" s="221"/>
-      <c r="U39" s="221"/>
-      <c r="V39" s="217"/>
+      <c r="I39" s="209"/>
+      <c r="K39" s="213"/>
+      <c r="L39" s="213"/>
+      <c r="U39" s="213"/>
+      <c r="V39" s="209"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="H40" s="221"/>
-      <c r="I40" s="217"/>
-      <c r="K40" s="221"/>
-      <c r="L40" s="221"/>
-      <c r="U40" s="221"/>
-      <c r="V40" s="217"/>
+      <c r="H40" s="213"/>
+      <c r="I40" s="209"/>
+      <c r="K40" s="213"/>
+      <c r="L40" s="213"/>
+      <c r="U40" s="213"/>
+      <c r="V40" s="209"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K41" s="221"/>
-      <c r="L41" s="221"/>
-      <c r="U41" s="221"/>
-      <c r="V41" s="217"/>
+      <c r="K41" s="213"/>
+      <c r="L41" s="213"/>
+      <c r="U41" s="213"/>
+      <c r="V41" s="209"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L42" s="221"/>
-      <c r="U42" s="221"/>
-      <c r="V42" s="217"/>
+      <c r="L42" s="213"/>
+      <c r="U42" s="213"/>
+      <c r="V42" s="209"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G43" s="243"/>
-      <c r="U43" s="221"/>
-      <c r="V43" s="217"/>
+      <c r="G43" s="235"/>
+      <c r="U43" s="213"/>
+      <c r="V43" s="209"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="H44" s="243"/>
-      <c r="I44" s="243"/>
-      <c r="J44" s="243"/>
-      <c r="K44" s="243"/>
-      <c r="V44" s="217"/>
+      <c r="H44" s="235"/>
+      <c r="I44" s="235"/>
+      <c r="J44" s="235"/>
+      <c r="K44" s="235"/>
+      <c r="V44" s="209"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V45" s="217"/>
+      <c r="V45" s="209"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V46" s="217"/>
+      <c r="V46" s="209"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V47" s="217"/>
+      <c r="V47" s="209"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V48" s="217"/>
+      <c r="V48" s="209"/>
     </row>
     <row r="49" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V49" s="217"/>
+      <c r="V49" s="209"/>
     </row>
     <row r="50" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V50" s="217"/>
+      <c r="V50" s="209"/>
     </row>
     <row r="51" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V51" s="217"/>
+      <c r="V51" s="209"/>
     </row>
     <row r="52" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V52" s="217"/>
+      <c r="V52" s="209"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25398,7 +24951,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25450,18 +25003,18 @@
       <c r="J1" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="222" t="s">
+      <c r="K1" s="245" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="222"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="226"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="244">
+      <c r="B2" s="236">
         <v>44211</v>
       </c>
       <c r="C2" t="s">
@@ -25471,7 +25024,7 @@
         <v>2500</v>
       </c>
       <c r="E2" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F2" s="5">
         <v>155</v>
@@ -25490,14 +25043,14 @@
       </c>
       <c r="K2" s="65">
         <f>D2-E2-F2-G2-H2-I2-J2</f>
-        <v>1998.1399999999999</v>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="244">
+      <c r="B3" s="236">
         <v>44227</v>
       </c>
       <c r="C3" t="s">
@@ -25507,7 +25060,7 @@
         <v>2500</v>
       </c>
       <c r="E3" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F3" s="5">
         <v>155</v>
@@ -25523,13 +25076,17 @@
       </c>
       <c r="J3" s="5">
         <v>150</v>
+      </c>
+      <c r="K3" s="65">
+        <f t="shared" ref="K3:K25" si="0">D3-E3-F3-G3-H3-I3-J3</f>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="244">
+      <c r="B4" s="236">
         <v>44242</v>
       </c>
       <c r="C4" t="s">
@@ -25539,7 +25096,7 @@
         <v>2500</v>
       </c>
       <c r="E4" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F4" s="5">
         <v>155</v>
@@ -25555,13 +25112,17 @@
       </c>
       <c r="J4" s="5">
         <v>150</v>
+      </c>
+      <c r="K4" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="244">
+      <c r="B5" s="236">
         <v>44245</v>
       </c>
       <c r="C5" t="s">
@@ -25571,7 +25132,7 @@
         <v>2500</v>
       </c>
       <c r="E5" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F5" s="5">
         <v>155</v>
@@ -25587,13 +25148,17 @@
       </c>
       <c r="J5" s="5">
         <v>150</v>
+      </c>
+      <c r="K5" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="244">
+      <c r="B6" s="236">
         <v>44270</v>
       </c>
       <c r="C6" t="s">
@@ -25603,7 +25168,7 @@
         <v>2500</v>
       </c>
       <c r="E6" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F6" s="5">
         <v>155</v>
@@ -25619,13 +25184,17 @@
       </c>
       <c r="J6" s="5">
         <v>150</v>
+      </c>
+      <c r="K6" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="244">
+      <c r="B7" s="236">
         <v>44286</v>
       </c>
       <c r="C7" t="s">
@@ -25635,7 +25204,7 @@
         <v>2500</v>
       </c>
       <c r="E7" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F7" s="5">
         <v>155</v>
@@ -25651,13 +25220,17 @@
       </c>
       <c r="J7" s="5">
         <v>150</v>
+      </c>
+      <c r="K7" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="244">
+      <c r="B8" s="236">
         <v>44301</v>
       </c>
       <c r="C8" t="s">
@@ -25667,7 +25240,7 @@
         <v>2500</v>
       </c>
       <c r="E8" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F8" s="5">
         <v>155</v>
@@ -25683,13 +25256,17 @@
       </c>
       <c r="J8" s="5">
         <v>150</v>
+      </c>
+      <c r="K8" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="244">
+      <c r="B9" s="236">
         <v>44316</v>
       </c>
       <c r="C9" t="s">
@@ -25699,7 +25276,7 @@
         <v>2500</v>
       </c>
       <c r="E9" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F9" s="5">
         <v>155</v>
@@ -25715,13 +25292,17 @@
       </c>
       <c r="J9" s="5">
         <v>150</v>
+      </c>
+      <c r="K9" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="244">
+      <c r="B10" s="236">
         <v>44331</v>
       </c>
       <c r="C10" t="s">
@@ -25731,7 +25312,7 @@
         <v>2500</v>
       </c>
       <c r="E10" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F10" s="5">
         <v>155</v>
@@ -25747,13 +25328,17 @@
       </c>
       <c r="J10" s="5">
         <v>150</v>
+      </c>
+      <c r="K10" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="244">
+      <c r="B11" s="236">
         <v>44347</v>
       </c>
       <c r="C11" t="s">
@@ -25763,7 +25348,7 @@
         <v>2500</v>
       </c>
       <c r="E11" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F11" s="5">
         <v>155</v>
@@ -25779,13 +25364,17 @@
       </c>
       <c r="J11" s="5">
         <v>150</v>
+      </c>
+      <c r="K11" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="244">
+      <c r="B12" s="236">
         <v>44362</v>
       </c>
       <c r="C12" t="s">
@@ -25795,7 +25384,7 @@
         <v>2500</v>
       </c>
       <c r="E12" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F12" s="5">
         <v>155</v>
@@ -25811,13 +25400,17 @@
       </c>
       <c r="J12" s="5">
         <v>150</v>
+      </c>
+      <c r="K12" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="244">
+      <c r="B13" s="236">
         <v>44377</v>
       </c>
       <c r="C13" t="s">
@@ -25827,7 +25420,7 @@
         <v>2500</v>
       </c>
       <c r="E13" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F13" s="5">
         <v>155</v>
@@ -25843,13 +25436,17 @@
       </c>
       <c r="J13" s="5">
         <v>150</v>
+      </c>
+      <c r="K13" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="244">
+      <c r="B14" s="236">
         <v>44392</v>
       </c>
       <c r="C14" t="s">
@@ -25859,7 +25456,7 @@
         <v>2500</v>
       </c>
       <c r="E14" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F14" s="5">
         <v>155</v>
@@ -25875,13 +25472,17 @@
       </c>
       <c r="J14" s="5">
         <v>150</v>
+      </c>
+      <c r="K14" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="244">
+      <c r="B15" s="236">
         <v>44408</v>
       </c>
       <c r="C15" t="s">
@@ -25891,7 +25492,7 @@
         <v>2500</v>
       </c>
       <c r="E15" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F15" s="5">
         <v>155</v>
@@ -25907,13 +25508,17 @@
       </c>
       <c r="J15" s="5">
         <v>150</v>
+      </c>
+      <c r="K15" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="244">
+      <c r="B16" s="236">
         <v>44423</v>
       </c>
       <c r="C16" t="s">
@@ -25923,7 +25528,7 @@
         <v>2500</v>
       </c>
       <c r="E16" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F16" s="5">
         <v>155</v>
@@ -25940,12 +25545,16 @@
       <c r="J16" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="244">
+      <c r="B17" s="236">
         <v>44408</v>
       </c>
       <c r="C17" t="s">
@@ -25955,7 +25564,7 @@
         <v>2500</v>
       </c>
       <c r="E17" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F17" s="5">
         <v>155</v>
@@ -25972,12 +25581,16 @@
       <c r="J17" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="244">
+      <c r="B18" s="236">
         <v>44454</v>
       </c>
       <c r="C18" t="s">
@@ -25987,7 +25600,7 @@
         <v>2500</v>
       </c>
       <c r="E18" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F18" s="5">
         <v>155</v>
@@ -26004,12 +25617,16 @@
       <c r="J18" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="244">
+      <c r="B19" s="236">
         <v>44469</v>
       </c>
       <c r="C19" t="s">
@@ -26019,7 +25636,7 @@
         <v>2500</v>
       </c>
       <c r="E19" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F19" s="5">
         <v>155</v>
@@ -26036,12 +25653,16 @@
       <c r="J19" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="244">
+      <c r="B20" s="236">
         <v>44484</v>
       </c>
       <c r="C20" t="s">
@@ -26051,7 +25672,7 @@
         <v>2500</v>
       </c>
       <c r="E20" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F20" s="5">
         <v>155</v>
@@ -26068,12 +25689,16 @@
       <c r="J20" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="244">
+      <c r="B21" s="236">
         <v>44500</v>
       </c>
       <c r="C21" t="s">
@@ -26083,7 +25708,7 @@
         <v>2500</v>
       </c>
       <c r="E21" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F21" s="5">
         <v>155</v>
@@ -26100,12 +25725,16 @@
       <c r="J21" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="244">
+      <c r="B22" s="236">
         <v>44515</v>
       </c>
       <c r="C22" t="s">
@@ -26115,7 +25744,7 @@
         <v>2500</v>
       </c>
       <c r="E22" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F22" s="5">
         <v>155</v>
@@ -26132,12 +25761,16 @@
       <c r="J22" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="244">
+      <c r="B23" s="236">
         <v>44530</v>
       </c>
       <c r="C23" t="s">
@@ -26147,7 +25780,7 @@
         <v>2500</v>
       </c>
       <c r="E23" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F23" s="5">
         <v>155</v>
@@ -26164,12 +25797,16 @@
       <c r="J23" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="244">
+      <c r="B24" s="236">
         <v>44545</v>
       </c>
       <c r="C24" t="s">
@@ -26179,7 +25816,7 @@
         <v>2500</v>
       </c>
       <c r="E24" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F24" s="5">
         <v>155</v>
@@ -26196,12 +25833,16 @@
       <c r="J24" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="244">
+      <c r="B25" s="236">
         <v>44561</v>
       </c>
       <c r="C25" t="s">
@@ -26211,7 +25852,7 @@
         <v>2500</v>
       </c>
       <c r="E25" s="5">
-        <v>131.07</v>
+        <v>259.18</v>
       </c>
       <c r="F25" s="5">
         <v>155</v>
@@ -26227,6 +25868,10 @@
       </c>
       <c r="J25" s="5">
         <v>150</v>
+      </c>
+      <c r="K25" s="65">
+        <f t="shared" si="0"/>
+        <v>1870.0300000000002</v>
       </c>
     </row>
   </sheetData>
@@ -26352,11 +25997,11 @@
         <f>SUM(Income!N2:N5)*0.05*2</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="201" t="s">
+      <c r="Q2" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="240"/>
       <c r="V2" s="49"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -26373,11 +26018,11 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="Q3" s="202" t="s">
+      <c r="Q3" s="241" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="241"/>
       <c r="U3" t="s">
         <v>23</v>
       </c>
@@ -26438,11 +26083,11 @@
         <v>800</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="Q4" s="203" t="s">
+      <c r="Q4" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="203"/>
-      <c r="S4" s="203"/>
+      <c r="R4" s="242"/>
+      <c r="S4" s="242"/>
       <c r="U4" t="s">
         <v>14</v>
       </c>
@@ -26503,11 +26148,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="Q5" s="201" t="s">
+      <c r="Q5" s="240" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="201"/>
-      <c r="S5" s="201"/>
+      <c r="R5" s="240"/>
+      <c r="S5" s="240"/>
       <c r="U5" t="s">
         <v>65</v>
       </c>
@@ -26568,11 +26213,11 @@
         <v>400</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="Q6" s="201" t="s">
+      <c r="Q6" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="201"/>
-      <c r="S6" s="201"/>
+      <c r="R6" s="240"/>
+      <c r="S6" s="240"/>
       <c r="U6" t="s">
         <v>72</v>
       </c>
@@ -27387,11 +27032,11 @@
         <v>350</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="T2" s="201" t="s">
+      <c r="T2" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
+      <c r="U2" s="240"/>
+      <c r="V2" s="240"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -27434,11 +27079,11 @@
         <v>350</v>
       </c>
       <c r="N3" s="9"/>
-      <c r="T3" s="202" t="s">
+      <c r="T3" s="241" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
@@ -27481,11 +27126,11 @@
         <v>75</v>
       </c>
       <c r="N4" s="9"/>
-      <c r="T4" s="203" t="s">
+      <c r="T4" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="203"/>
-      <c r="V4" s="203"/>
+      <c r="U4" s="242"/>
+      <c r="V4" s="242"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
@@ -27528,11 +27173,11 @@
         <v>60</v>
       </c>
       <c r="N5" s="9"/>
-      <c r="T5" s="201" t="s">
+      <c r="T5" s="240" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="201"/>
-      <c r="V5" s="201"/>
+      <c r="U5" s="240"/>
+      <c r="V5" s="240"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="196" t="s">
@@ -27587,11 +27232,11 @@
         <v>835</v>
       </c>
       <c r="N6" s="9"/>
-      <c r="T6" s="201" t="s">
+      <c r="T6" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="201"/>
-      <c r="V6" s="201"/>
+      <c r="U6" s="240"/>
+      <c r="V6" s="240"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
@@ -28281,30 +27926,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="243"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="AD2" s="201" t="s">
+      <c r="AD2" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
+      <c r="AE2" s="240"/>
+      <c r="AF2" s="240"/>
     </row>
     <row r="3" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
@@ -28352,11 +27997,11 @@
       <c r="O3" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="AD3" s="201" t="s">
+      <c r="AD3" s="240" t="s">
         <v>45</v>
       </c>
-      <c r="AE3" s="201"/>
-      <c r="AF3" s="201"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
@@ -28418,11 +28063,11 @@
         <f>AVERAGEIF(Expense_Report[[#This Row],[January ]:[December]],"&gt;0")</f>
         <v>45</v>
       </c>
-      <c r="AD4" s="203" t="s">
+      <c r="AD4" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="AE4" s="203"/>
-      <c r="AF4" s="203"/>
+      <c r="AE4" s="242"/>
+      <c r="AF4" s="242"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
@@ -28484,11 +28129,11 @@
         <f>AVERAGEIF(Expense_Report[[#This Row],[January ]:[December]],"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="201" t="s">
+      <c r="AD5" s="240" t="s">
         <v>48</v>
       </c>
-      <c r="AE5" s="201"/>
-      <c r="AF5" s="201"/>
+      <c r="AE5" s="240"/>
+      <c r="AF5" s="240"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
@@ -28550,11 +28195,11 @@
         <f>AVERAGEIF(Expense_Report[[#This Row],[January ]:[December]],"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="201" t="s">
+      <c r="AD6" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="AE6" s="201"/>
-      <c r="AF6" s="201"/>
+      <c r="AE6" s="240"/>
+      <c r="AF6" s="240"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
@@ -28616,11 +28261,11 @@
         <f>AVERAGEIF(Expense_Report[[#This Row],[January ]:[December]],"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD7" s="201" t="s">
+      <c r="AD7" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="AE7" s="201"/>
-      <c r="AF7" s="201"/>
+      <c r="AE7" s="240"/>
+      <c r="AF7" s="240"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
